--- a/figures/g/stats.xlsx
+++ b/figures/g/stats.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.708</v>
+        <v>0.667</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.761</v>
+        <v>0.741</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.709</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.762</v>
+        <v>0.744</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004051620835536895</v>
+        <v>0.002020220831301504</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.643</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.628</v>
+        <v>0.71</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.592</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.021</v>
+        <v>0.026</v>
       </c>
       <c r="D5" t="n">
-        <v>0.584</v>
+        <v>0.573</v>
       </c>
       <c r="E5" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03205968222565037</v>
+        <v>0.02630944998180856</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.476</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.622</v>
+        <v>0.466</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.581</v>
+        <v>0.635</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.61</v>
+        <v>0.681</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.593</v>
+        <v>0.643</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.664</v>
+        <v>0.722</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.769293077207874e-16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
